--- a/Excel-Module/src/main/resources/Student2.xlsx
+++ b/Excel-Module/src/main/resources/Student2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">Data</t>
   </si>
   <si>
+    <t xml:space="preserve">Rating</t>
+  </si>
+  <si>
     <t xml:space="preserve">anun1</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t xml:space="preserve">11.11.2011</t>
   </si>
   <si>
+    <t xml:space="preserve">74/100</t>
+  </si>
+  <si>
     <t xml:space="preserve">anun2</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
     <t xml:space="preserve">22.11.2021</t>
   </si>
   <si>
+    <t xml:space="preserve">99/100</t>
+  </si>
+  <si>
     <t xml:space="preserve">anun3</t>
   </si>
   <si>
@@ -76,6 +85,9 @@
     <t xml:space="preserve">23.03.2023</t>
   </si>
   <si>
+    <t xml:space="preserve">100/100</t>
+  </si>
+  <si>
     <t xml:space="preserve">anun4</t>
   </si>
   <si>
@@ -86,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">19.09.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54/100</t>
   </si>
 </sst>
 </file>
@@ -205,10 +220,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="16.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -237,25 +252,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -263,19 +284,22 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -283,19 +307,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -303,19 +330,22 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
